--- a/big-data/big-data-capstone/project/data/beer_n_Bright Leaf Peeper Red IPA.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Bright Leaf Peeper Red IPA.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LesArgen(867)
+          <t>LesArgen(868)
 🇦🇺Australia
 3.8June 25, 2022
 A dangerously easy drinking 9 percenter. Aromas of caramel, pine, stonefruit and biscuit. A little toast in the mouth too. Full bodied, with nice length.
@@ -566,7 +566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vanvenlo(2,492)
+          <t>vanvenlo(2,494)
 🇦🇺Glen Iris, Australia
 3.4November 24, 2021
 Farside beers can (24-Nov-21) Resin biscuit aroma. Red brown colour, good white head and spider lacing. Sweet resin pine flavour. Bitter resin caramel biscuit finish and pine resin…
@@ -710,7 +710,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANZUShophunter(2,751)
+          <t>ANZUShophunter(2,758)
 🇦🇺Brisbane, Australia
 3.9June 20, 2021
 On tap at The Scratch. Pours near clear reddish orange w/light tan head, dank forest aroma. Taste evokes blood orange, quite a spicy palate, firm balanced bitterness
@@ -781,7 +781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davros(4,638)
+          <t>Davros(4,640)
 🇦🇺Melbourne, Australia
 4.0June 3, 2021
 Pours reddish amber with a small head.
